--- a/artfynd/A 26594-2022 artfynd.xlsx
+++ b/artfynd/A 26594-2022 artfynd.xlsx
@@ -2093,7 +2093,7 @@
         <v>127702684</v>
       </c>
       <c r="B15" t="n">
-        <v>58039</v>
+        <v>58043</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
